--- a/data/孤独的美食家/word_frequency.xlsx
+++ b/data/孤独的美食家/word_frequency.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\市调\code\data\孤独的美食家\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D693B8-B5D8-43C0-A89E-0E7819DD0466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -926,12 +932,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -939,8 +945,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -986,15 +999,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1036,7 +1057,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1068,9 +1089,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1102,6 +1141,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1277,14 +1334,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1292,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1300,7 +1359,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1308,7 +1367,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1375,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1383,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1332,7 +1391,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1340,7 +1399,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +1407,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1364,7 +1423,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1372,7 +1431,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1380,7 +1439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1388,7 +1447,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1396,7 +1455,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1404,7 +1463,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1412,7 +1471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1420,7 +1479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1428,7 +1487,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1436,7 +1495,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,7 +1503,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1452,7 +1511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1460,7 +1519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,7 +1527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +1535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1492,7 +1551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1500,7 +1559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1508,7 +1567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1516,7 +1575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1524,7 +1583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1532,7 +1591,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1540,7 +1599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1548,7 +1607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1556,7 +1615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1564,7 +1623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1572,7 +1631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1580,7 +1639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1588,7 +1647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1596,7 +1655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1604,7 +1663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1612,7 +1671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1620,7 +1679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1628,7 +1687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1636,7 +1695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1644,7 +1703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1652,7 +1711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1660,7 +1719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1668,7 +1727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1676,7 +1735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1684,7 +1743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1692,7 +1751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -1700,7 +1759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -1708,7 +1767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -1716,7 +1775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -1724,7 +1783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -1732,7 +1791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -1740,7 +1799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -1748,7 +1807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -1756,7 +1815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -1764,7 +1823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -1772,7 +1831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -1780,7 +1839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -1788,7 +1847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -1796,7 +1855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -1804,7 +1863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -1812,7 +1871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -1820,7 +1879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -1828,7 +1887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -1836,7 +1895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -1844,7 +1903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -1852,7 +1911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
@@ -1860,7 +1919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -1868,7 +1927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -1876,7 +1935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -1884,7 +1943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -1892,7 +1951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -1900,7 +1959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -1908,7 +1967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -1916,7 +1975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -1924,7 +1983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -1932,7 +1991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
@@ -1940,7 +1999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
@@ -1948,7 +2007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
@@ -1956,7 +2015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
@@ -1964,7 +2023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
@@ -1972,7 +2031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -1980,7 +2039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
@@ -1988,7 +2047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
@@ -1996,7 +2055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -2004,7 +2063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
@@ -2012,7 +2071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
@@ -2020,7 +2079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
@@ -2028,7 +2087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
@@ -2036,7 +2095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -2044,7 +2103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
@@ -2052,7 +2111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
@@ -2060,7 +2119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
@@ -2068,7 +2127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
@@ -2076,7 +2135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
@@ -2084,7 +2143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
@@ -2092,7 +2151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
@@ -2100,7 +2159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
@@ -2108,7 +2167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
@@ -2116,7 +2175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
@@ -2124,7 +2183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
@@ -2132,7 +2191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
@@ -2140,7 +2199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
@@ -2148,7 +2207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
@@ -2156,7 +2215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
@@ -2164,7 +2223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
@@ -2172,7 +2231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
@@ -2180,7 +2239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
@@ -2188,7 +2247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
@@ -2196,7 +2255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
@@ -2204,7 +2263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
@@ -2212,7 +2271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
@@ -2220,7 +2279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
@@ -2228,7 +2287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
@@ -2236,7 +2295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
@@ -2244,7 +2303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
@@ -2252,7 +2311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
@@ -2260,7 +2319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
@@ -2268,7 +2327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
@@ -2276,7 +2335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
@@ -2284,7 +2343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
@@ -2292,7 +2351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
@@ -2300,7 +2359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
@@ -2308,7 +2367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
@@ -2316,7 +2375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
@@ -2324,7 +2383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
@@ -2332,7 +2391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
@@ -2340,7 +2399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
@@ -2348,7 +2407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
@@ -2356,7 +2415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
@@ -2364,7 +2423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
@@ -2372,7 +2431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
@@ -2380,7 +2439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
@@ -2388,7 +2447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
@@ -2396,7 +2455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
@@ -2404,7 +2463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
@@ -2412,7 +2471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
@@ -2420,7 +2479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
@@ -2428,7 +2487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
@@ -2436,7 +2495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
@@ -2444,7 +2503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
@@ -2452,7 +2511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
@@ -2460,7 +2519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
@@ -2468,7 +2527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
@@ -2476,7 +2535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
@@ -2484,7 +2543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
@@ -2492,7 +2551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
@@ -2500,7 +2559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
@@ -2508,7 +2567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
@@ -2516,7 +2575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
@@ -2524,7 +2583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
@@ -2532,7 +2591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
@@ -2540,7 +2599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
@@ -2548,7 +2607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
@@ -2556,7 +2615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
@@ -2564,7 +2623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
@@ -2572,7 +2631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
@@ -2580,7 +2639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
@@ -2588,7 +2647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
@@ -2596,7 +2655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
@@ -2604,7 +2663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
@@ -2612,7 +2671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
@@ -2620,7 +2679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
@@ -2628,7 +2687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
@@ -2636,7 +2695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
@@ -2644,7 +2703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
@@ -2652,7 +2711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>172</v>
       </c>
@@ -2660,7 +2719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>173</v>
       </c>
@@ -2668,7 +2727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>174</v>
       </c>
@@ -2676,7 +2735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>175</v>
       </c>
@@ -2684,7 +2743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>176</v>
       </c>
@@ -2692,7 +2751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>177</v>
       </c>
@@ -2700,7 +2759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>178</v>
       </c>
@@ -2708,7 +2767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
@@ -2716,7 +2775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>180</v>
       </c>
@@ -2724,7 +2783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>181</v>
       </c>
@@ -2732,7 +2791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
@@ -2740,7 +2799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>183</v>
       </c>
@@ -2748,7 +2807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
@@ -2756,7 +2815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>185</v>
       </c>
@@ -2764,7 +2823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
@@ -2772,7 +2831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>187</v>
       </c>
@@ -2780,7 +2839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>188</v>
       </c>
@@ -2788,7 +2847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
@@ -2796,7 +2855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>190</v>
       </c>
@@ -2804,7 +2863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>191</v>
       </c>
@@ -2812,7 +2871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
@@ -2820,7 +2879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>193</v>
       </c>
@@ -2828,7 +2887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>194</v>
       </c>
@@ -2836,7 +2895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>195</v>
       </c>
@@ -2844,7 +2903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>196</v>
       </c>
@@ -2852,7 +2911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>197</v>
       </c>
@@ -2860,7 +2919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>198</v>
       </c>
@@ -2868,7 +2927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>199</v>
       </c>
@@ -2876,7 +2935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
@@ -2884,7 +2943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>201</v>
       </c>
@@ -2892,7 +2951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>202</v>
       </c>
@@ -2900,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>203</v>
       </c>
@@ -2908,7 +2967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>204</v>
       </c>
@@ -2916,7 +2975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>205</v>
       </c>
@@ -2924,7 +2983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>206</v>
       </c>
@@ -2932,7 +2991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>207</v>
       </c>
@@ -2940,7 +2999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>208</v>
       </c>
@@ -2948,7 +3007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>209</v>
       </c>
@@ -2956,7 +3015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>210</v>
       </c>
@@ -2964,7 +3023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>211</v>
       </c>
@@ -2972,7 +3031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>212</v>
       </c>
@@ -2980,7 +3039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>213</v>
       </c>
@@ -2988,7 +3047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>214</v>
       </c>
@@ -2996,7 +3055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>215</v>
       </c>
@@ -3004,7 +3063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>216</v>
       </c>
@@ -3012,7 +3071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>217</v>
       </c>
@@ -3020,7 +3079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>218</v>
       </c>
@@ -3028,7 +3087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>219</v>
       </c>
@@ -3036,7 +3095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>220</v>
       </c>
@@ -3044,7 +3103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>221</v>
       </c>
@@ -3052,7 +3111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>222</v>
       </c>
@@ -3060,7 +3119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>223</v>
       </c>
@@ -3068,7 +3127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>224</v>
       </c>
@@ -3076,7 +3135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>225</v>
       </c>
@@ -3084,7 +3143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>226</v>
       </c>
@@ -3092,7 +3151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>227</v>
       </c>
@@ -3100,7 +3159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>228</v>
       </c>
@@ -3108,7 +3167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>229</v>
       </c>
@@ -3116,7 +3175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>230</v>
       </c>
@@ -3124,7 +3183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>231</v>
       </c>
@@ -3132,7 +3191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>232</v>
       </c>
@@ -3140,7 +3199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>233</v>
       </c>
@@ -3148,7 +3207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>234</v>
       </c>
@@ -3156,7 +3215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>235</v>
       </c>
@@ -3164,7 +3223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>236</v>
       </c>
@@ -3172,7 +3231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>237</v>
       </c>
@@ -3180,7 +3239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>238</v>
       </c>
@@ -3188,7 +3247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>239</v>
       </c>
@@ -3196,7 +3255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>240</v>
       </c>
@@ -3204,7 +3263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>241</v>
       </c>
@@ -3212,7 +3271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>242</v>
       </c>
@@ -3220,7 +3279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>243</v>
       </c>
@@ -3228,7 +3287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>244</v>
       </c>
@@ -3236,7 +3295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>245</v>
       </c>
@@ -3244,7 +3303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>246</v>
       </c>
@@ -3252,7 +3311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>247</v>
       </c>
@@ -3260,7 +3319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>248</v>
       </c>
@@ -3268,7 +3327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>249</v>
       </c>
@@ -3276,7 +3335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>250</v>
       </c>
@@ -3284,7 +3343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>251</v>
       </c>
@@ -3292,7 +3351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>252</v>
       </c>
@@ -3300,7 +3359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>253</v>
       </c>
@@ -3308,7 +3367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>254</v>
       </c>
@@ -3316,7 +3375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>255</v>
       </c>
@@ -3324,7 +3383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>256</v>
       </c>
@@ -3332,7 +3391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>257</v>
       </c>
@@ -3340,7 +3399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>258</v>
       </c>
@@ -3348,7 +3407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>259</v>
       </c>
@@ -3356,7 +3415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>260</v>
       </c>
@@ -3364,7 +3423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>261</v>
       </c>
@@ -3372,7 +3431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>262</v>
       </c>
@@ -3380,7 +3439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>263</v>
       </c>
@@ -3388,7 +3447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>264</v>
       </c>
@@ -3396,7 +3455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>265</v>
       </c>
@@ -3404,7 +3463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>266</v>
       </c>
@@ -3412,7 +3471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>267</v>
       </c>
@@ -3420,7 +3479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>268</v>
       </c>
@@ -3428,7 +3487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>269</v>
       </c>
@@ -3436,7 +3495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>270</v>
       </c>
@@ -3444,7 +3503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>271</v>
       </c>
@@ -3452,7 +3511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>272</v>
       </c>
@@ -3460,7 +3519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>273</v>
       </c>
@@ -3468,7 +3527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>274</v>
       </c>
@@ -3476,7 +3535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>275</v>
       </c>
@@ -3484,7 +3543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>276</v>
       </c>
@@ -3492,7 +3551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>277</v>
       </c>
@@ -3500,7 +3559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>278</v>
       </c>
@@ -3508,7 +3567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>279</v>
       </c>
@@ -3516,7 +3575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>280</v>
       </c>
@@ -3524,7 +3583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>281</v>
       </c>
@@ -3532,7 +3591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>282</v>
       </c>
@@ -3540,7 +3599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>283</v>
       </c>
@@ -3548,7 +3607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>284</v>
       </c>
@@ -3556,7 +3615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>285</v>
       </c>
@@ -3564,7 +3623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>286</v>
       </c>
@@ -3572,7 +3631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>287</v>
       </c>
@@ -3580,7 +3639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>288</v>
       </c>
@@ -3588,7 +3647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>289</v>
       </c>
@@ -3596,7 +3655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>290</v>
       </c>
@@ -3604,7 +3663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>291</v>
       </c>
@@ -3612,7 +3671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>292</v>
       </c>
@@ -3620,7 +3679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>293</v>
       </c>
@@ -3628,7 +3687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>294</v>
       </c>
@@ -3636,7 +3695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>295</v>
       </c>
@@ -3644,7 +3703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>296</v>
       </c>
@@ -3652,7 +3711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>297</v>
       </c>
@@ -3660,7 +3719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>298</v>
       </c>
@@ -3668,7 +3727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>299</v>
       </c>
@@ -3676,7 +3735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>300</v>
       </c>
@@ -3684,7 +3743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>301</v>
       </c>
@@ -3693,6 +3752,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>